--- a/Fingerprinting in Noisy Network Environments/experiment_results/1024_6_2_PvLvC.xlsx
+++ b/Fingerprinting in Noisy Network Environments/experiment_results/1024_6_2_PvLvC.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,38 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nthom/Development/SmartRecon/Fingerprinting in Noisy Network Environments/experiment_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66A07523-4D9F-9C47-86EE-0AFC98D9D435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4586EB-EF3E-1242-B579-E39FF0C22DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1024_6_2_PvLvC_mworks06" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'1024_6_2_PvLvC_mworks06'!#REF!</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'1024_6_2_PvLvC_mworks06'!#REF!</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'1024_6_2_PvLvC_mworks06'!$B$20:$Y$20</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'1024_6_2_PvLvC_mworks06'!$A$20</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'1024_6_2_PvLvC_mworks06'!$B$19:$Y$19</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'1024_6_2_PvLvC_mworks06'!$B$20:$Y$20</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'1024_6_2_PvLvC_mworks06'!$B$4:$Y$4</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'1024_6_2_PvLvC_mworks06'!$B$1</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'1024_6_2_PvLvC_mworks06'!$B$1:$X$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'1024_6_2_PvLvC_mworks06'!$B$1:$Y$1</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'1024_6_2_PvLvC_mworks06'!#REF!</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'1024_6_2_PvLvC_mworks06'!$B$2:$Y$2</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'1024_6_2_PvLvC_mworks06'!#REF!</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'1024_6_2_PvLvC_mworks06'!$B$3:$Y$3</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'1024_6_2_PvLvC_mworks06'!$B$4:$Y$4</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'1024_6_2_PvLvC_mworks06'!$Y$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'1024_6_2_PvLvC_mworks06'!#REF!</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'1024_6_2_PvLvC_mworks06'!#REF!</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'1024_6_2_PvLvC_mworks06'!#REF!</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'1024_6_2_PvLvC_mworks06'!$B$1:$Y$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'1024_6_2_PvLvC_mworks06'!$B$4:$Y$4</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'1024_6_2_PvLvC_mworks06'!$A$20</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'1024_6_2_PvLvC_mworks06'!$B$19:$Y$19</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -58,7 +33,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
+  <si>
+    <t>light-6_precision</t>
+  </si>
+  <si>
+    <t>light-6_recall</t>
+  </si>
+  <si>
+    <t>light-6_f1</t>
+  </si>
+  <si>
+    <t>light-6_support</t>
+  </si>
   <si>
     <t>cam-5_precision</t>
   </si>
@@ -72,6 +59,78 @@
     <t>cam-5_support</t>
   </si>
   <si>
+    <t>cam-6_precision</t>
+  </si>
+  <si>
+    <t>cam-6_recall</t>
+  </si>
+  <si>
+    <t>cam-6_f1</t>
+  </si>
+  <si>
+    <t>cam-6_support</t>
+  </si>
+  <si>
+    <t>light-2_precision</t>
+  </si>
+  <si>
+    <t>light-2_recall</t>
+  </si>
+  <si>
+    <t>light-2_f1</t>
+  </si>
+  <si>
+    <t>light-2_support</t>
+  </si>
+  <si>
+    <t>cam-8_precision</t>
+  </si>
+  <si>
+    <t>cam-8_recall</t>
+  </si>
+  <si>
+    <t>cam-8_f1</t>
+  </si>
+  <si>
+    <t>cam-8_support</t>
+  </si>
+  <si>
+    <t>light-8_precision</t>
+  </si>
+  <si>
+    <t>light-8_recall</t>
+  </si>
+  <si>
+    <t>light-8_f1</t>
+  </si>
+  <si>
+    <t>light-8_support</t>
+  </si>
+  <si>
+    <t>plug-1_precision</t>
+  </si>
+  <si>
+    <t>plug-1_recall</t>
+  </si>
+  <si>
+    <t>plug-1_f1</t>
+  </si>
+  <si>
+    <t>plug-1_support</t>
+  </si>
+  <si>
+    <t>plug-3_precision</t>
+  </si>
+  <si>
+    <t>plug-3_recall</t>
+  </si>
+  <si>
+    <t>plug-3_f1</t>
+  </si>
+  <si>
+    <t>plug-3_support</t>
+  </si>
+  <si>
     <t>plug-4_precision</t>
   </si>
   <si>
@@ -84,6 +143,138 @@
     <t>plug-4_support</t>
   </si>
   <si>
+    <t>plug-8_precision</t>
+  </si>
+  <si>
+    <t>plug-8_recall</t>
+  </si>
+  <si>
+    <t>plug-8_f1</t>
+  </si>
+  <si>
+    <t>plug-8_support</t>
+  </si>
+  <si>
+    <t>plug-5_precision</t>
+  </si>
+  <si>
+    <t>plug-5_recall</t>
+  </si>
+  <si>
+    <t>plug-5_f1</t>
+  </si>
+  <si>
+    <t>plug-5_support</t>
+  </si>
+  <si>
+    <t>light-3_precision</t>
+  </si>
+  <si>
+    <t>light-3_recall</t>
+  </si>
+  <si>
+    <t>light-3_f1</t>
+  </si>
+  <si>
+    <t>light-3_support</t>
+  </si>
+  <si>
+    <t>plug-7_precision</t>
+  </si>
+  <si>
+    <t>plug-7_recall</t>
+  </si>
+  <si>
+    <t>plug-7_f1</t>
+  </si>
+  <si>
+    <t>plug-7_support</t>
+  </si>
+  <si>
+    <t>cam-7_precision</t>
+  </si>
+  <si>
+    <t>cam-7_recall</t>
+  </si>
+  <si>
+    <t>cam-7_f1</t>
+  </si>
+  <si>
+    <t>cam-7_support</t>
+  </si>
+  <si>
+    <t>cam-3_precision</t>
+  </si>
+  <si>
+    <t>cam-3_recall</t>
+  </si>
+  <si>
+    <t>cam-3_f1</t>
+  </si>
+  <si>
+    <t>cam-3_support</t>
+  </si>
+  <si>
+    <t>plug-6_precision</t>
+  </si>
+  <si>
+    <t>plug-6_recall</t>
+  </si>
+  <si>
+    <t>plug-6_f1</t>
+  </si>
+  <si>
+    <t>plug-6_support</t>
+  </si>
+  <si>
+    <t>cam-2_precision</t>
+  </si>
+  <si>
+    <t>cam-2_recall</t>
+  </si>
+  <si>
+    <t>cam-2_f1</t>
+  </si>
+  <si>
+    <t>cam-2_support</t>
+  </si>
+  <si>
+    <t>cam-4_precision</t>
+  </si>
+  <si>
+    <t>cam-4_recall</t>
+  </si>
+  <si>
+    <t>cam-4_f1</t>
+  </si>
+  <si>
+    <t>cam-4_support</t>
+  </si>
+  <si>
+    <t>plug-2_precision</t>
+  </si>
+  <si>
+    <t>plug-2_recall</t>
+  </si>
+  <si>
+    <t>plug-2_f1</t>
+  </si>
+  <si>
+    <t>plug-2_support</t>
+  </si>
+  <si>
+    <t>light-1_precision</t>
+  </si>
+  <si>
+    <t>light-1_recall</t>
+  </si>
+  <si>
+    <t>light-1_f1</t>
+  </si>
+  <si>
+    <t>light-1_support</t>
+  </si>
+  <si>
     <t>cam-1_precision</t>
   </si>
   <si>
@@ -96,198 +287,6 @@
     <t>cam-1_support</t>
   </si>
   <si>
-    <t>plug-3_precision</t>
-  </si>
-  <si>
-    <t>plug-3_recall</t>
-  </si>
-  <si>
-    <t>plug-3_f1</t>
-  </si>
-  <si>
-    <t>plug-3_support</t>
-  </si>
-  <si>
-    <t>plug-5_precision</t>
-  </si>
-  <si>
-    <t>plug-5_recall</t>
-  </si>
-  <si>
-    <t>plug-5_f1</t>
-  </si>
-  <si>
-    <t>plug-5_support</t>
-  </si>
-  <si>
-    <t>light-1_precision</t>
-  </si>
-  <si>
-    <t>light-1_recall</t>
-  </si>
-  <si>
-    <t>light-1_f1</t>
-  </si>
-  <si>
-    <t>light-1_support</t>
-  </si>
-  <si>
-    <t>cam-2_precision</t>
-  </si>
-  <si>
-    <t>cam-2_recall</t>
-  </si>
-  <si>
-    <t>cam-2_f1</t>
-  </si>
-  <si>
-    <t>cam-2_support</t>
-  </si>
-  <si>
-    <t>plug-7_precision</t>
-  </si>
-  <si>
-    <t>plug-7_recall</t>
-  </si>
-  <si>
-    <t>plug-7_f1</t>
-  </si>
-  <si>
-    <t>plug-7_support</t>
-  </si>
-  <si>
-    <t>cam-8_precision</t>
-  </si>
-  <si>
-    <t>cam-8_recall</t>
-  </si>
-  <si>
-    <t>cam-8_f1</t>
-  </si>
-  <si>
-    <t>cam-8_support</t>
-  </si>
-  <si>
-    <t>cam-4_precision</t>
-  </si>
-  <si>
-    <t>cam-4_recall</t>
-  </si>
-  <si>
-    <t>cam-4_f1</t>
-  </si>
-  <si>
-    <t>cam-4_support</t>
-  </si>
-  <si>
-    <t>cam-7_precision</t>
-  </si>
-  <si>
-    <t>cam-7_recall</t>
-  </si>
-  <si>
-    <t>cam-7_f1</t>
-  </si>
-  <si>
-    <t>cam-7_support</t>
-  </si>
-  <si>
-    <t>plug-8_precision</t>
-  </si>
-  <si>
-    <t>plug-8_recall</t>
-  </si>
-  <si>
-    <t>plug-8_f1</t>
-  </si>
-  <si>
-    <t>plug-8_support</t>
-  </si>
-  <si>
-    <t>cam-3_precision</t>
-  </si>
-  <si>
-    <t>cam-3_recall</t>
-  </si>
-  <si>
-    <t>cam-3_f1</t>
-  </si>
-  <si>
-    <t>cam-3_support</t>
-  </si>
-  <si>
-    <t>plug-2_precision</t>
-  </si>
-  <si>
-    <t>plug-2_recall</t>
-  </si>
-  <si>
-    <t>plug-2_f1</t>
-  </si>
-  <si>
-    <t>plug-2_support</t>
-  </si>
-  <si>
-    <t>light-3_precision</t>
-  </si>
-  <si>
-    <t>light-3_recall</t>
-  </si>
-  <si>
-    <t>light-3_f1</t>
-  </si>
-  <si>
-    <t>light-3_support</t>
-  </si>
-  <si>
-    <t>cam-6_precision</t>
-  </si>
-  <si>
-    <t>cam-6_recall</t>
-  </si>
-  <si>
-    <t>cam-6_f1</t>
-  </si>
-  <si>
-    <t>cam-6_support</t>
-  </si>
-  <si>
-    <t>light-2_precision</t>
-  </si>
-  <si>
-    <t>light-2_recall</t>
-  </si>
-  <si>
-    <t>light-2_f1</t>
-  </si>
-  <si>
-    <t>light-2_support</t>
-  </si>
-  <si>
-    <t>plug-6_precision</t>
-  </si>
-  <si>
-    <t>plug-6_recall</t>
-  </si>
-  <si>
-    <t>plug-6_f1</t>
-  </si>
-  <si>
-    <t>plug-6_support</t>
-  </si>
-  <si>
-    <t>plug-1_precision</t>
-  </si>
-  <si>
-    <t>plug-1_recall</t>
-  </si>
-  <si>
-    <t>plug-1_f1</t>
-  </si>
-  <si>
-    <t>plug-1_support</t>
-  </si>
-  <si>
     <t>light-5_precision</t>
   </si>
   <si>
@@ -312,30 +311,6 @@
     <t>light-4_support</t>
   </si>
   <si>
-    <t>light-6_precision</t>
-  </si>
-  <si>
-    <t>light-6_recall</t>
-  </si>
-  <si>
-    <t>light-6_f1</t>
-  </si>
-  <si>
-    <t>light-6_support</t>
-  </si>
-  <si>
-    <t>light-8_precision</t>
-  </si>
-  <si>
-    <t>light-8_recall</t>
-  </si>
-  <si>
-    <t>light-8_f1</t>
-  </si>
-  <si>
-    <t>light-8_support</t>
-  </si>
-  <si>
     <t>light-7_precision</t>
   </si>
   <si>
@@ -375,90 +350,126 @@
     <t>weighted_average_support</t>
   </si>
   <si>
+    <t>plug_average_precision</t>
+  </si>
+  <si>
+    <t>plug_average_recall</t>
+  </si>
+  <si>
+    <t>plug_average_f1</t>
+  </si>
+  <si>
+    <t>plug_average_support</t>
+  </si>
+  <si>
+    <t>light_average_precision</t>
+  </si>
+  <si>
+    <t>light_average_recall</t>
+  </si>
+  <si>
+    <t>light_average_f1</t>
+  </si>
+  <si>
+    <t>light_average_support</t>
+  </si>
+  <si>
+    <t>cam_average_precision</t>
+  </si>
+  <si>
+    <t>cam_average_recall</t>
+  </si>
+  <si>
+    <t>cam_average_f1</t>
+  </si>
+  <si>
+    <t>cam_average_support</t>
+  </si>
+  <si>
+    <t>plug-1</t>
+  </si>
+  <si>
+    <t>plug-2</t>
+  </si>
+  <si>
+    <t>plug-3</t>
+  </si>
+  <si>
+    <t>plug-4</t>
+  </si>
+  <si>
+    <t>plug-5</t>
+  </si>
+  <si>
+    <t>plug-6</t>
+  </si>
+  <si>
+    <t>plug-7</t>
+  </si>
+  <si>
+    <t>plug-8</t>
+  </si>
+  <si>
+    <t>light-1</t>
+  </si>
+  <si>
+    <t>light-2</t>
+  </si>
+  <si>
+    <t>light-3</t>
+  </si>
+  <si>
+    <t>light-4</t>
+  </si>
+  <si>
+    <t>light-5</t>
+  </si>
+  <si>
+    <t>light-6</t>
+  </si>
+  <si>
+    <t>light-7</t>
+  </si>
+  <si>
+    <t>light-8</t>
+  </si>
+  <si>
+    <t>cam-1</t>
+  </si>
+  <si>
+    <t>cam-2</t>
+  </si>
+  <si>
+    <t>cam-3</t>
+  </si>
+  <si>
+    <t>cam-4</t>
+  </si>
+  <si>
+    <t>cam-5</t>
+  </si>
+  <si>
+    <t>cam-6</t>
+  </si>
+  <si>
+    <t>cam-7</t>
+  </si>
+  <si>
+    <t>cam-8</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>F1-Score</t>
+  </si>
+  <si>
     <t>Support</t>
   </si>
   <si>
-    <t>plug-1</t>
-  </si>
-  <si>
-    <t>plug-2</t>
-  </si>
-  <si>
-    <t>plug-3</t>
-  </si>
-  <si>
-    <t>plug-4</t>
-  </si>
-  <si>
-    <t>plug-5</t>
-  </si>
-  <si>
-    <t>plug-6</t>
-  </si>
-  <si>
-    <t>plug-7</t>
-  </si>
-  <si>
-    <t>plug-8</t>
-  </si>
-  <si>
-    <t>light-1</t>
-  </si>
-  <si>
-    <t>light-2</t>
-  </si>
-  <si>
-    <t>light-3</t>
-  </si>
-  <si>
-    <t>light-4</t>
-  </si>
-  <si>
-    <t>light-5</t>
-  </si>
-  <si>
-    <t>light-6</t>
-  </si>
-  <si>
-    <t>light-7</t>
-  </si>
-  <si>
-    <t>light-8</t>
-  </si>
-  <si>
-    <t>cam-1</t>
-  </si>
-  <si>
-    <t>cam-2</t>
-  </si>
-  <si>
-    <t>cam-3</t>
-  </si>
-  <si>
-    <t>cam-4</t>
-  </si>
-  <si>
-    <t>cam-5</t>
-  </si>
-  <si>
-    <t>cam-6</t>
-  </si>
-  <si>
-    <t>cam-7</t>
-  </si>
-  <si>
-    <t>cam-8</t>
-  </si>
-  <si>
-    <t>Precision</t>
-  </si>
-  <si>
-    <t>Recall</t>
-  </si>
-  <si>
-    <t>F1-Score</t>
-  </si>
-  <si>
     <t>Avg. Acc.</t>
   </si>
   <si>
@@ -486,46 +497,46 @@
     <t>Weighted Avg. Support</t>
   </si>
   <si>
-    <t>Avg. Precision Plug</t>
-  </si>
-  <si>
-    <t>Avg. Recall Plug</t>
-  </si>
-  <si>
-    <t>Avg. F1 Plug</t>
-  </si>
-  <si>
-    <t>Avg. Support Plug</t>
-  </si>
-  <si>
-    <t>Avg. Precision Light</t>
-  </si>
-  <si>
-    <t>Avg. Recall Light</t>
-  </si>
-  <si>
-    <t>Avg. F1 Light</t>
-  </si>
-  <si>
-    <t>Avg. Support Light</t>
-  </si>
-  <si>
-    <t>Avg. Precision Cam</t>
-  </si>
-  <si>
-    <t>Avg. Recall Cam</t>
-  </si>
-  <si>
-    <t>Avg. F1 Cam</t>
-  </si>
-  <si>
-    <t>Avg. Support Cam</t>
+    <t>Precision Plugs</t>
+  </si>
+  <si>
+    <t>Recall Plugs</t>
+  </si>
+  <si>
+    <t>F1 Plugs</t>
+  </si>
+  <si>
+    <t>Support Plugs</t>
+  </si>
+  <si>
+    <t>Precision Lights</t>
+  </si>
+  <si>
+    <t>Recall Lights</t>
+  </si>
+  <si>
+    <t>F1 Lights</t>
+  </si>
+  <si>
+    <t>Support Lights</t>
+  </si>
+  <si>
+    <t>Precision Cams</t>
+  </si>
+  <si>
+    <t>Recall Cams</t>
+  </si>
+  <si>
+    <t>F1 Cams</t>
+  </si>
+  <si>
+    <t>Support Cams</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1359,105 +1370,195 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DA20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:DM21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD20"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="59" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="66" max="67" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="70" max="71" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="74" max="75" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="78" max="79" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="82" max="83" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="12" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="94" max="95" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="25" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="18" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="15" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C1" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D1" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="E1" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="F1" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="G1" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="H1" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="I1" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="J1" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="K1" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="L1" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="M1" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="N1" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="O1" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="P1" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="Q1" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="R1" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="S1" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="T1" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="U1" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="V1" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="W1" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="X1" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="Y1" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1534,1024 +1635,1132 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="B3">
-        <v>0.99281775041682696</v>
+        <v>0.99642095644227802</v>
       </c>
       <c r="C3">
-        <v>0.99307143352040395</v>
+        <v>0.99621523778179999</v>
       </c>
       <c r="D3">
-        <v>0.99225814077182195</v>
+        <v>0.99642080145975098</v>
       </c>
       <c r="E3">
-        <v>0.99296415067247401</v>
+        <v>0.99704444697055805</v>
       </c>
       <c r="F3">
-        <v>0.99430559949383102</v>
+        <v>0.99693193913969003</v>
       </c>
       <c r="G3">
-        <v>0.99216524216524205</v>
+        <v>0.99534805041021701</v>
       </c>
       <c r="H3">
-        <v>0.99569538741513197</v>
+        <v>0.99763111960768003</v>
       </c>
       <c r="I3">
-        <v>0.99292767547371197</v>
+        <v>0.99532562192996299</v>
       </c>
       <c r="J3">
-        <v>0.99008115419296605</v>
+        <v>0.99525812619502796</v>
       </c>
       <c r="K3">
-        <v>0.98984836802878395</v>
+        <v>0.99404852739203398</v>
       </c>
       <c r="L3">
-        <v>0.99104985941150803</v>
+        <v>0.99393340857787804</v>
       </c>
       <c r="M3">
-        <v>0.91872791519434605</v>
+        <v>0.92436974789915904</v>
       </c>
       <c r="N3">
-        <v>0.86594202898550698</v>
+        <v>0.88362068965517204</v>
       </c>
       <c r="O3">
-        <v>0.97222222222222199</v>
+        <v>0.96694214876033002</v>
       </c>
       <c r="P3">
-        <v>0.97222222222222199</v>
+        <v>0.96694214876033002</v>
       </c>
       <c r="Q3">
-        <v>0.96389891696750896</v>
+        <v>0.93162393162393098</v>
       </c>
       <c r="R3">
-        <v>0.99922550664773402</v>
+        <v>0.99972408718844796</v>
       </c>
       <c r="S3">
-        <v>0.99922039448039202</v>
+        <v>0.99981484338836601</v>
       </c>
       <c r="T3">
-        <v>0.99921826141338299</v>
+        <v>0.99965962187084201</v>
       </c>
       <c r="U3">
-        <v>0.99914766673769395</v>
+        <v>0.99981022267206399</v>
       </c>
       <c r="V3">
-        <v>0.99898929691346805</v>
+        <v>0.99966148638251995</v>
       </c>
       <c r="W3">
-        <v>0.99903706017072602</v>
+        <v>0.99987637914516103</v>
       </c>
       <c r="X3">
-        <v>0.99892905652491903</v>
+        <v>0.99981389000899501</v>
       </c>
       <c r="Y3">
-        <v>0.99910245241677798</v>
+        <v>0.99971786833855802</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="B4">
-        <v>0.99639593255245196</v>
+        <v>0.998207270091925</v>
       </c>
       <c r="C4">
-        <v>0.99652367378154705</v>
+        <v>0.99810403099497103</v>
       </c>
       <c r="D4">
-        <v>0.99611402806205696</v>
+        <v>0.99820719232256405</v>
       </c>
       <c r="E4">
-        <v>0.99646965585148495</v>
+        <v>0.99852003642987197</v>
       </c>
       <c r="F4">
-        <v>0.99714467005076102</v>
+        <v>0.99846361270498196</v>
       </c>
       <c r="G4">
-        <v>0.99606721487307803</v>
+        <v>0.99766860243313105</v>
       </c>
       <c r="H4">
-        <v>0.99784305129329198</v>
+        <v>0.99881415524164097</v>
       </c>
       <c r="I4">
-        <v>0.99645128891864698</v>
+        <v>0.99765733571570303</v>
       </c>
       <c r="J4">
-        <v>0.995015858631626</v>
+        <v>0.997623428396197</v>
       </c>
       <c r="K4">
-        <v>0.99489828866645103</v>
+        <v>0.997015382260656</v>
       </c>
       <c r="L4">
-        <v>0.99550481342986696</v>
+        <v>0.99695747541215596</v>
       </c>
       <c r="M4">
-        <v>0.95764272559852603</v>
+        <v>0.96069868995633101</v>
       </c>
       <c r="N4">
-        <v>0.92815533980582499</v>
+        <v>0.93821510297482802</v>
       </c>
       <c r="O4">
-        <v>0.98591549295774605</v>
+        <v>0.98319327731092399</v>
       </c>
       <c r="P4">
-        <v>0.98591549295774605</v>
+        <v>0.98319327731092399</v>
       </c>
       <c r="Q4">
-        <v>0.98161764705882304</v>
+        <v>0.96460176991150404</v>
       </c>
       <c r="R4">
-        <v>0.99961260330578505</v>
+        <v>0.99986202455962803</v>
       </c>
       <c r="S4">
-        <v>0.99961004523475205</v>
+        <v>0.99990741312264597</v>
       </c>
       <c r="T4">
-        <v>0.99960897786814695</v>
+        <v>0.999829781966173</v>
       </c>
       <c r="U4">
-        <v>0.99957365167341705</v>
+        <v>0.99990510233131902</v>
       </c>
       <c r="V4">
-        <v>0.99949439294742903</v>
+        <v>0.999830714538543</v>
       </c>
       <c r="W4">
-        <v>0.99951829816041904</v>
+        <v>0.99993818575181503</v>
       </c>
       <c r="X4">
-        <v>0.99946424137885903</v>
+        <v>0.99990693634445904</v>
       </c>
       <c r="Y4">
-        <v>0.99955102472004997</v>
+        <v>0.99985891426690199</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="B5">
-        <v>15594</v>
+        <v>13132</v>
       </c>
       <c r="C5">
-        <v>14433</v>
+        <v>12154</v>
       </c>
       <c r="D5">
-        <v>16921</v>
+        <v>14249</v>
       </c>
       <c r="E5">
-        <v>20893</v>
+        <v>17594</v>
       </c>
       <c r="F5">
-        <v>18966</v>
+        <v>15971</v>
       </c>
       <c r="G5">
-        <v>14040</v>
+        <v>11823</v>
       </c>
       <c r="H5">
-        <v>28574</v>
+        <v>24062</v>
       </c>
       <c r="I5">
-        <v>14988</v>
+        <v>12622</v>
       </c>
       <c r="J5">
-        <v>15526</v>
+        <v>13075</v>
       </c>
       <c r="K5">
-        <v>15564</v>
+        <v>13106</v>
       </c>
       <c r="L5">
-        <v>25251</v>
+        <v>21264</v>
       </c>
       <c r="M5">
-        <v>283</v>
+        <v>238</v>
       </c>
       <c r="N5">
-        <v>276</v>
+        <v>232</v>
       </c>
       <c r="O5">
-        <v>288</v>
+        <v>242</v>
       </c>
       <c r="P5">
-        <v>288</v>
+        <v>242</v>
       </c>
       <c r="Q5">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="R5">
-        <v>38735</v>
+        <v>32619</v>
       </c>
       <c r="S5">
-        <v>38481</v>
+        <v>32405</v>
       </c>
       <c r="T5">
-        <v>38376</v>
+        <v>32317</v>
       </c>
       <c r="U5">
-        <v>37544</v>
+        <v>31616</v>
       </c>
       <c r="V5">
-        <v>38587</v>
+        <v>32495</v>
       </c>
       <c r="W5">
-        <v>38424</v>
+        <v>32357</v>
       </c>
       <c r="X5">
-        <v>38284</v>
+        <v>32239</v>
       </c>
       <c r="Y5">
-        <v>37881</v>
+        <v>31900</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="B7" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="D7" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="E7" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="F7" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="G7" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H7" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="I7" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>0.99639312924554602</v>
+        <v>0.99807561164722003</v>
       </c>
       <c r="B8">
-        <v>0.99432635117969603</v>
+        <v>0.99741122949393202</v>
       </c>
       <c r="C8">
-        <v>0.99393853435885704</v>
+        <v>0.99640809168254496</v>
       </c>
       <c r="D8">
-        <v>0.99413107917677901</v>
+        <v>0.99690872142382703</v>
       </c>
       <c r="E8">
-        <v>508474</v>
+        <v>428188</v>
       </c>
       <c r="F8">
-        <v>0.99639365550016601</v>
+        <v>0.99807449947750704</v>
       </c>
       <c r="G8">
-        <v>0.99639312924554602</v>
+        <v>0.99807561164722003</v>
       </c>
       <c r="H8">
-        <v>0.99639208055399597</v>
+        <v>0.99807445940970996</v>
       </c>
       <c r="I8">
-        <v>508474</v>
+        <v>428188</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="B10" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="C10" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="D10" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11">
-        <f>AVERAGE(B2:I2)</f>
-        <v>1</v>
+        <v>0.99806466489878598</v>
       </c>
       <c r="B11">
-        <f>AVERAGE(B3:I3)</f>
-        <v>0.99327567249118065</v>
+        <v>0.99657914429268002</v>
       </c>
       <c r="C11">
-        <f>AVERAGE(B4:I4)</f>
-        <v>0.99662618942291492</v>
+        <v>0.99732135142141098</v>
       </c>
       <c r="D11">
-        <f>AVERAGE(B5:I5)</f>
-        <v>18051.125</v>
+        <v>121607</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="C13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="D13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14">
-        <f>AVERAGE(J2:Q2)</f>
-        <v>1</v>
+        <v>0.99562877585104803</v>
       </c>
       <c r="B14">
-        <f>AVERAGE(J3:Q3)</f>
-        <v>0.9579990859031331</v>
+        <v>0.99288548927682796</v>
       </c>
       <c r="C14">
-        <f>AVERAGE(J4:Q4)</f>
-        <v>0.97808320738832633</v>
+        <v>0.99425524029156198</v>
       </c>
       <c r="D14">
-        <f>AVERAGE(J5:Q5)</f>
-        <v>7219.125</v>
+        <v>48633</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="B16" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="C16" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="D16" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="17" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A17">
-        <f>AVERAGE(R2:Y2)</f>
-        <v>1</v>
+        <v>0.99854024773196304</v>
       </c>
       <c r="B17">
-        <f>AVERAGE(R3:Y3)</f>
-        <v>0.99910871191313677</v>
+        <v>0.99975964147812701</v>
       </c>
       <c r="C17">
-        <f>AVERAGE(R4:Y4)</f>
-        <v>0.99955415441110729</v>
+        <v>0.999149572558508</v>
       </c>
       <c r="D17">
-        <f>AVERAGE(R5:Y5)</f>
-        <v>38289</v>
+        <v>257948</v>
       </c>
     </row>
-    <row r="19" spans="1:105" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="20" spans="1:117" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>0</v>
       </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
         <v>2</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>3</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E20" t="s">
         <v>4</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F20" t="s">
         <v>5</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G20" t="s">
         <v>6</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H20" t="s">
         <v>7</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I20" t="s">
         <v>8</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J20" t="s">
         <v>9</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K20" t="s">
         <v>10</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L20" t="s">
         <v>11</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M20" t="s">
         <v>12</v>
       </c>
-      <c r="N19" t="s">
+      <c r="N20" t="s">
         <v>13</v>
       </c>
-      <c r="O19" t="s">
+      <c r="O20" t="s">
         <v>14</v>
       </c>
-      <c r="P19" t="s">
+      <c r="P20" t="s">
         <v>15</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="Q20" t="s">
         <v>16</v>
       </c>
-      <c r="R19" t="s">
+      <c r="R20" t="s">
         <v>17</v>
       </c>
-      <c r="S19" t="s">
+      <c r="S20" t="s">
         <v>18</v>
       </c>
-      <c r="T19" t="s">
+      <c r="T20" t="s">
         <v>19</v>
       </c>
-      <c r="U19" t="s">
+      <c r="U20" t="s">
         <v>20</v>
       </c>
-      <c r="V19" t="s">
+      <c r="V20" t="s">
         <v>21</v>
       </c>
-      <c r="W19" t="s">
+      <c r="W20" t="s">
         <v>22</v>
       </c>
-      <c r="X19" t="s">
+      <c r="X20" t="s">
         <v>23</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Y20" t="s">
         <v>24</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="Z20" t="s">
         <v>25</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AA20" t="s">
         <v>26</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AB20" t="s">
         <v>27</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AC20" t="s">
         <v>28</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AD20" t="s">
         <v>29</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AE20" t="s">
         <v>30</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AF20" t="s">
         <v>31</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AG20" t="s">
         <v>32</v>
       </c>
-      <c r="AH19" t="s">
+      <c r="AH20" t="s">
         <v>33</v>
       </c>
-      <c r="AI19" t="s">
+      <c r="AI20" t="s">
         <v>34</v>
       </c>
-      <c r="AJ19" t="s">
+      <c r="AJ20" t="s">
         <v>35</v>
       </c>
-      <c r="AK19" t="s">
+      <c r="AK20" t="s">
         <v>36</v>
       </c>
-      <c r="AL19" t="s">
+      <c r="AL20" t="s">
         <v>37</v>
       </c>
-      <c r="AM19" t="s">
+      <c r="AM20" t="s">
         <v>38</v>
       </c>
-      <c r="AN19" t="s">
+      <c r="AN20" t="s">
         <v>39</v>
       </c>
-      <c r="AO19" t="s">
+      <c r="AO20" t="s">
         <v>40</v>
       </c>
-      <c r="AP19" t="s">
+      <c r="AP20" t="s">
         <v>41</v>
       </c>
-      <c r="AQ19" t="s">
+      <c r="AQ20" t="s">
         <v>42</v>
       </c>
-      <c r="AR19" t="s">
+      <c r="AR20" t="s">
         <v>43</v>
       </c>
-      <c r="AS19" t="s">
+      <c r="AS20" t="s">
         <v>44</v>
       </c>
-      <c r="AT19" t="s">
+      <c r="AT20" t="s">
         <v>45</v>
       </c>
-      <c r="AU19" t="s">
+      <c r="AU20" t="s">
         <v>46</v>
       </c>
-      <c r="AV19" t="s">
+      <c r="AV20" t="s">
         <v>47</v>
       </c>
-      <c r="AW19" t="s">
+      <c r="AW20" t="s">
         <v>48</v>
       </c>
-      <c r="AX19" t="s">
+      <c r="AX20" t="s">
         <v>49</v>
       </c>
-      <c r="AY19" t="s">
+      <c r="AY20" t="s">
         <v>50</v>
       </c>
-      <c r="AZ19" t="s">
+      <c r="AZ20" t="s">
         <v>51</v>
       </c>
-      <c r="BA19" t="s">
+      <c r="BA20" t="s">
         <v>52</v>
       </c>
-      <c r="BB19" t="s">
+      <c r="BB20" t="s">
         <v>53</v>
       </c>
-      <c r="BC19" t="s">
+      <c r="BC20" t="s">
         <v>54</v>
       </c>
-      <c r="BD19" t="s">
+      <c r="BD20" t="s">
         <v>55</v>
       </c>
-      <c r="BE19" t="s">
+      <c r="BE20" t="s">
         <v>56</v>
       </c>
-      <c r="BF19" t="s">
+      <c r="BF20" t="s">
         <v>57</v>
       </c>
-      <c r="BG19" t="s">
+      <c r="BG20" t="s">
         <v>58</v>
       </c>
-      <c r="BH19" t="s">
+      <c r="BH20" t="s">
         <v>59</v>
       </c>
-      <c r="BI19" t="s">
+      <c r="BI20" t="s">
         <v>60</v>
       </c>
-      <c r="BJ19" t="s">
+      <c r="BJ20" t="s">
         <v>61</v>
       </c>
-      <c r="BK19" t="s">
+      <c r="BK20" t="s">
         <v>62</v>
       </c>
-      <c r="BL19" t="s">
+      <c r="BL20" t="s">
         <v>63</v>
       </c>
-      <c r="BM19" t="s">
+      <c r="BM20" t="s">
         <v>64</v>
       </c>
-      <c r="BN19" t="s">
+      <c r="BN20" t="s">
         <v>65</v>
       </c>
-      <c r="BO19" t="s">
+      <c r="BO20" t="s">
         <v>66</v>
       </c>
-      <c r="BP19" t="s">
+      <c r="BP20" t="s">
         <v>67</v>
       </c>
-      <c r="BQ19" t="s">
+      <c r="BQ20" t="s">
         <v>68</v>
       </c>
-      <c r="BR19" t="s">
+      <c r="BR20" t="s">
         <v>69</v>
       </c>
-      <c r="BS19" t="s">
+      <c r="BS20" t="s">
         <v>70</v>
       </c>
-      <c r="BT19" t="s">
+      <c r="BT20" t="s">
         <v>71</v>
       </c>
-      <c r="BU19" t="s">
+      <c r="BU20" t="s">
         <v>72</v>
       </c>
-      <c r="BV19" t="s">
+      <c r="BV20" t="s">
         <v>73</v>
       </c>
-      <c r="BW19" t="s">
+      <c r="BW20" t="s">
         <v>74</v>
       </c>
-      <c r="BX19" t="s">
+      <c r="BX20" t="s">
         <v>75</v>
       </c>
-      <c r="BY19" t="s">
+      <c r="BY20" t="s">
         <v>76</v>
       </c>
-      <c r="BZ19" t="s">
+      <c r="BZ20" t="s">
         <v>77</v>
       </c>
-      <c r="CA19" t="s">
+      <c r="CA20" t="s">
         <v>78</v>
       </c>
-      <c r="CB19" t="s">
+      <c r="CB20" t="s">
         <v>79</v>
       </c>
-      <c r="CC19" t="s">
+      <c r="CC20" t="s">
         <v>80</v>
       </c>
-      <c r="CD19" t="s">
+      <c r="CD20" t="s">
         <v>81</v>
       </c>
-      <c r="CE19" t="s">
+      <c r="CE20" t="s">
         <v>82</v>
       </c>
-      <c r="CF19" t="s">
+      <c r="CF20" t="s">
         <v>83</v>
       </c>
-      <c r="CG19" t="s">
+      <c r="CG20" t="s">
         <v>84</v>
       </c>
-      <c r="CH19" t="s">
+      <c r="CH20" t="s">
         <v>85</v>
       </c>
-      <c r="CI19" t="s">
+      <c r="CI20" t="s">
         <v>86</v>
       </c>
-      <c r="CJ19" t="s">
+      <c r="CJ20" t="s">
         <v>87</v>
       </c>
-      <c r="CK19" t="s">
+      <c r="CK20" t="s">
         <v>88</v>
       </c>
-      <c r="CL19" t="s">
+      <c r="CL20" t="s">
         <v>89</v>
       </c>
-      <c r="CM19" t="s">
+      <c r="CM20" t="s">
         <v>90</v>
       </c>
-      <c r="CN19" t="s">
+      <c r="CN20" t="s">
         <v>91</v>
       </c>
-      <c r="CO19" t="s">
+      <c r="CO20" t="s">
         <v>92</v>
       </c>
-      <c r="CP19" t="s">
+      <c r="CP20" t="s">
         <v>93</v>
       </c>
-      <c r="CQ19" t="s">
+      <c r="CQ20" t="s">
         <v>94</v>
       </c>
-      <c r="CR19" t="s">
+      <c r="CR20" t="s">
         <v>95</v>
       </c>
-      <c r="CS19" t="s">
+      <c r="CS20" t="s">
         <v>96</v>
       </c>
-      <c r="CT19" t="s">
+      <c r="CT20" t="s">
         <v>97</v>
       </c>
-      <c r="CU19" t="s">
+      <c r="CU20" t="s">
         <v>98</v>
       </c>
-      <c r="CV19" t="s">
+      <c r="CV20" t="s">
         <v>99</v>
       </c>
-      <c r="CW19" t="s">
+      <c r="CW20" t="s">
         <v>100</v>
       </c>
-      <c r="CX19" t="s">
+      <c r="CX20" t="s">
         <v>101</v>
       </c>
-      <c r="CY19" t="s">
+      <c r="CY20" t="s">
         <v>102</v>
       </c>
-      <c r="CZ19" t="s">
+      <c r="CZ20" t="s">
         <v>103</v>
       </c>
-      <c r="DA19" t="s">
+      <c r="DA20" t="s">
         <v>104</v>
       </c>
+      <c r="DB20" t="s">
+        <v>105</v>
+      </c>
+      <c r="DC20" t="s">
+        <v>106</v>
+      </c>
+      <c r="DD20" t="s">
+        <v>107</v>
+      </c>
+      <c r="DE20" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF20" t="s">
+        <v>109</v>
+      </c>
+      <c r="DG20" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH20" t="s">
+        <v>111</v>
+      </c>
+      <c r="DI20" t="s">
+        <v>112</v>
+      </c>
+      <c r="DJ20" t="s">
+        <v>113</v>
+      </c>
+      <c r="DK20" t="s">
+        <v>114</v>
+      </c>
+      <c r="DL20" t="s">
+        <v>115</v>
+      </c>
+      <c r="DM20" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="20" spans="1:105" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <v>0.99898929691346805</v>
-      </c>
-      <c r="C20">
-        <v>0.99949439294742903</v>
-      </c>
-      <c r="D20">
-        <v>38587</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.99296415067247401</v>
-      </c>
-      <c r="G20">
-        <v>0.99646965585148495</v>
-      </c>
-      <c r="H20">
-        <v>20893</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>0.99922550664773402</v>
-      </c>
-      <c r="K20">
-        <v>0.99961260330578505</v>
-      </c>
-      <c r="L20">
-        <v>38735</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-      <c r="N20">
-        <v>0.99225814077182195</v>
-      </c>
-      <c r="O20">
-        <v>0.99611402806205696</v>
-      </c>
-      <c r="P20">
-        <v>16921</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-      <c r="R20">
-        <v>0.99430559949383102</v>
-      </c>
-      <c r="S20">
-        <v>0.99714467005076102</v>
-      </c>
-      <c r="T20">
-        <v>18966</v>
-      </c>
-      <c r="U20">
-        <v>1</v>
-      </c>
-      <c r="V20">
-        <v>0.99008115419296605</v>
-      </c>
-      <c r="W20">
-        <v>0.995015858631626</v>
-      </c>
-      <c r="X20">
-        <v>15526</v>
-      </c>
-      <c r="Y20">
-        <v>1</v>
-      </c>
-      <c r="Z20">
-        <v>0.99922039448039202</v>
-      </c>
-      <c r="AA20">
-        <v>0.99961004523475205</v>
-      </c>
-      <c r="AB20">
-        <v>38481</v>
-      </c>
-      <c r="AC20">
-        <v>1</v>
-      </c>
-      <c r="AD20">
-        <v>0.99569538741513197</v>
-      </c>
-      <c r="AE20">
-        <v>0.99784305129329198</v>
-      </c>
-      <c r="AF20">
-        <v>28574</v>
-      </c>
-      <c r="AG20">
-        <v>1</v>
-      </c>
-      <c r="AH20">
-        <v>0.99910245241677798</v>
-      </c>
-      <c r="AI20">
-        <v>0.99955102472004997</v>
-      </c>
-      <c r="AJ20">
-        <v>37881</v>
-      </c>
-      <c r="AK20">
-        <v>1</v>
-      </c>
-      <c r="AL20">
-        <v>0.99914766673769395</v>
-      </c>
-      <c r="AM20">
-        <v>0.99957365167341705</v>
-      </c>
-      <c r="AN20">
-        <v>37544</v>
-      </c>
-      <c r="AO20">
-        <v>1</v>
-      </c>
-      <c r="AP20">
-        <v>0.99892905652491903</v>
-      </c>
-      <c r="AQ20">
-        <v>0.99946424137885903</v>
-      </c>
-      <c r="AR20">
-        <v>38284</v>
-      </c>
-      <c r="AS20">
-        <v>1</v>
-      </c>
-      <c r="AT20">
-        <v>0.99292767547371197</v>
-      </c>
-      <c r="AU20">
-        <v>0.99645128891864698</v>
-      </c>
-      <c r="AV20">
-        <v>14988</v>
-      </c>
-      <c r="AW20">
-        <v>1</v>
-      </c>
-      <c r="AX20">
-        <v>0.99921826141338299</v>
-      </c>
-      <c r="AY20">
-        <v>0.99960897786814695</v>
-      </c>
-      <c r="AZ20">
-        <v>38376</v>
-      </c>
-      <c r="BA20">
-        <v>1</v>
-      </c>
-      <c r="BB20">
-        <v>0.99307143352040395</v>
-      </c>
-      <c r="BC20">
-        <v>0.99652367378154705</v>
-      </c>
-      <c r="BD20">
-        <v>14433</v>
-      </c>
-      <c r="BE20">
-        <v>1</v>
-      </c>
-      <c r="BF20">
-        <v>0.99104985941150803</v>
-      </c>
-      <c r="BG20">
-        <v>0.99550481342986696</v>
-      </c>
-      <c r="BH20">
-        <v>25251</v>
-      </c>
-      <c r="BI20">
-        <v>1</v>
-      </c>
-      <c r="BJ20">
-        <v>0.99903706017072602</v>
-      </c>
-      <c r="BK20">
-        <v>0.99951829816041904</v>
-      </c>
-      <c r="BL20">
-        <v>38424</v>
-      </c>
-      <c r="BM20">
-        <v>1</v>
-      </c>
-      <c r="BN20">
-        <v>0.98984836802878395</v>
-      </c>
-      <c r="BO20">
-        <v>0.99489828866645103</v>
-      </c>
-      <c r="BP20">
-        <v>15564</v>
-      </c>
-      <c r="BQ20">
-        <v>1</v>
-      </c>
-      <c r="BR20">
-        <v>0.99216524216524205</v>
-      </c>
-      <c r="BS20">
-        <v>0.99606721487307803</v>
-      </c>
-      <c r="BT20">
-        <v>14040</v>
-      </c>
-      <c r="BU20">
-        <v>1</v>
-      </c>
-      <c r="BV20">
-        <v>0.99281775041682696</v>
-      </c>
-      <c r="BW20">
-        <v>0.99639593255245196</v>
-      </c>
-      <c r="BX20">
-        <v>15594</v>
-      </c>
-      <c r="BY20">
-        <v>1</v>
-      </c>
-      <c r="BZ20">
-        <v>0.86594202898550698</v>
-      </c>
-      <c r="CA20">
-        <v>0.92815533980582499</v>
-      </c>
-      <c r="CB20">
-        <v>276</v>
-      </c>
-      <c r="CC20">
-        <v>1</v>
-      </c>
-      <c r="CD20">
-        <v>0.91872791519434605</v>
-      </c>
-      <c r="CE20">
-        <v>0.95764272559852603</v>
-      </c>
-      <c r="CF20">
-        <v>283</v>
-      </c>
-      <c r="CG20">
-        <v>1</v>
-      </c>
-      <c r="CH20">
-        <v>0.97222222222222199</v>
-      </c>
-      <c r="CI20">
-        <v>0.98591549295774605</v>
-      </c>
-      <c r="CJ20">
-        <v>288</v>
-      </c>
-      <c r="CK20">
-        <v>1</v>
-      </c>
-      <c r="CL20">
-        <v>0.96389891696750896</v>
-      </c>
-      <c r="CM20">
-        <v>0.98161764705882304</v>
-      </c>
-      <c r="CN20">
-        <v>277</v>
-      </c>
-      <c r="CO20">
-        <v>1</v>
-      </c>
-      <c r="CP20">
-        <v>0.97222222222222199</v>
-      </c>
-      <c r="CQ20">
-        <v>0.98591549295774605</v>
-      </c>
-      <c r="CR20">
-        <v>288</v>
-      </c>
-      <c r="CS20">
-        <v>0.99639312924554602</v>
-      </c>
-      <c r="CT20">
-        <v>0.99432635117969603</v>
-      </c>
-      <c r="CU20">
-        <v>0.99393853435885704</v>
-      </c>
-      <c r="CV20">
-        <v>0.99413107917677901</v>
-      </c>
-      <c r="CW20">
-        <v>508474</v>
-      </c>
-      <c r="CX20">
-        <v>0.99639365550016601</v>
-      </c>
-      <c r="CY20">
-        <v>0.99639312924554602</v>
-      </c>
-      <c r="CZ20">
-        <v>0.99639208055399597</v>
-      </c>
-      <c r="DA20">
-        <v>508474</v>
+    <row r="21" spans="1:117" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>0.96694214876033002</v>
+      </c>
+      <c r="C21">
+        <v>0.98319327731092399</v>
+      </c>
+      <c r="D21">
+        <v>242</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.99966148638251995</v>
+      </c>
+      <c r="G21">
+        <v>0.999830714538543</v>
+      </c>
+      <c r="H21">
+        <v>32495</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0.99987637914516103</v>
+      </c>
+      <c r="K21">
+        <v>0.99993818575181503</v>
+      </c>
+      <c r="L21">
+        <v>32357</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>0.99404852739203398</v>
+      </c>
+      <c r="O21">
+        <v>0.997015382260656</v>
+      </c>
+      <c r="P21">
+        <v>13106</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>0.99971786833855802</v>
+      </c>
+      <c r="S21">
+        <v>0.99985891426690199</v>
+      </c>
+      <c r="T21">
+        <v>31900</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>0.93162393162393098</v>
+      </c>
+      <c r="W21">
+        <v>0.96460176991150404</v>
+      </c>
+      <c r="X21">
+        <v>234</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <v>0.99642095644227802</v>
+      </c>
+      <c r="AA21">
+        <v>0.998207270091925</v>
+      </c>
+      <c r="AB21">
+        <v>13132</v>
+      </c>
+      <c r="AC21">
+        <v>1</v>
+      </c>
+      <c r="AD21">
+        <v>0.99642080145975098</v>
+      </c>
+      <c r="AE21">
+        <v>0.99820719232256405</v>
+      </c>
+      <c r="AF21">
+        <v>14249</v>
+      </c>
+      <c r="AG21">
+        <v>1</v>
+      </c>
+      <c r="AH21">
+        <v>0.99704444697055805</v>
+      </c>
+      <c r="AI21">
+        <v>0.99852003642987197</v>
+      </c>
+      <c r="AJ21">
+        <v>17594</v>
+      </c>
+      <c r="AK21">
+        <v>1</v>
+      </c>
+      <c r="AL21">
+        <v>0.99532562192996299</v>
+      </c>
+      <c r="AM21">
+        <v>0.99765733571570303</v>
+      </c>
+      <c r="AN21">
+        <v>12622</v>
+      </c>
+      <c r="AO21">
+        <v>1</v>
+      </c>
+      <c r="AP21">
+        <v>0.99693193913969003</v>
+      </c>
+      <c r="AQ21">
+        <v>0.99846361270498196</v>
+      </c>
+      <c r="AR21">
+        <v>15971</v>
+      </c>
+      <c r="AS21">
+        <v>1</v>
+      </c>
+      <c r="AT21">
+        <v>0.99393340857787804</v>
+      </c>
+      <c r="AU21">
+        <v>0.99695747541215596</v>
+      </c>
+      <c r="AV21">
+        <v>21264</v>
+      </c>
+      <c r="AW21">
+        <v>1</v>
+      </c>
+      <c r="AX21">
+        <v>0.99763111960768003</v>
+      </c>
+      <c r="AY21">
+        <v>0.99881415524164097</v>
+      </c>
+      <c r="AZ21">
+        <v>24062</v>
+      </c>
+      <c r="BA21">
+        <v>1</v>
+      </c>
+      <c r="BB21">
+        <v>0.99981389000899501</v>
+      </c>
+      <c r="BC21">
+        <v>0.99990693634445904</v>
+      </c>
+      <c r="BD21">
+        <v>32239</v>
+      </c>
+      <c r="BE21">
+        <v>1</v>
+      </c>
+      <c r="BF21">
+        <v>0.99965962187084201</v>
+      </c>
+      <c r="BG21">
+        <v>0.999829781966173</v>
+      </c>
+      <c r="BH21">
+        <v>32317</v>
+      </c>
+      <c r="BI21">
+        <v>1</v>
+      </c>
+      <c r="BJ21">
+        <v>0.99534805041021701</v>
+      </c>
+      <c r="BK21">
+        <v>0.99766860243313105</v>
+      </c>
+      <c r="BL21">
+        <v>11823</v>
+      </c>
+      <c r="BM21">
+        <v>1</v>
+      </c>
+      <c r="BN21">
+        <v>0.99981484338836601</v>
+      </c>
+      <c r="BO21">
+        <v>0.99990741312264597</v>
+      </c>
+      <c r="BP21">
+        <v>32405</v>
+      </c>
+      <c r="BQ21">
+        <v>1</v>
+      </c>
+      <c r="BR21">
+        <v>0.99981022267206399</v>
+      </c>
+      <c r="BS21">
+        <v>0.99990510233131902</v>
+      </c>
+      <c r="BT21">
+        <v>31616</v>
+      </c>
+      <c r="BU21">
+        <v>1</v>
+      </c>
+      <c r="BV21">
+        <v>0.99621523778179999</v>
+      </c>
+      <c r="BW21">
+        <v>0.99810403099497103</v>
+      </c>
+      <c r="BX21">
+        <v>12154</v>
+      </c>
+      <c r="BY21">
+        <v>1</v>
+      </c>
+      <c r="BZ21">
+        <v>0.99525812619502796</v>
+      </c>
+      <c r="CA21">
+        <v>0.997623428396197</v>
+      </c>
+      <c r="CB21">
+        <v>13075</v>
+      </c>
+      <c r="CC21">
+        <v>1</v>
+      </c>
+      <c r="CD21">
+        <v>0.99972408718844796</v>
+      </c>
+      <c r="CE21">
+        <v>0.99986202455962803</v>
+      </c>
+      <c r="CF21">
+        <v>32619</v>
+      </c>
+      <c r="CG21">
+        <v>1</v>
+      </c>
+      <c r="CH21">
+        <v>0.88362068965517204</v>
+      </c>
+      <c r="CI21">
+        <v>0.93821510297482802</v>
+      </c>
+      <c r="CJ21">
+        <v>232</v>
+      </c>
+      <c r="CK21">
+        <v>1</v>
+      </c>
+      <c r="CL21">
+        <v>0.92436974789915904</v>
+      </c>
+      <c r="CM21">
+        <v>0.96069868995633101</v>
+      </c>
+      <c r="CN21">
+        <v>238</v>
+      </c>
+      <c r="CO21">
+        <v>1</v>
+      </c>
+      <c r="CP21">
+        <v>0.96694214876033002</v>
+      </c>
+      <c r="CQ21">
+        <v>0.98319327731092399</v>
+      </c>
+      <c r="CR21">
+        <v>242</v>
+      </c>
+      <c r="CS21">
+        <v>0.99807561164722003</v>
+      </c>
+      <c r="CT21">
+        <v>0.99741122949393202</v>
+      </c>
+      <c r="CU21">
+        <v>0.99640809168254496</v>
+      </c>
+      <c r="CV21">
+        <v>0.99690872142382703</v>
+      </c>
+      <c r="CW21">
+        <v>428188</v>
+      </c>
+      <c r="CX21">
+        <v>0.99807449947750704</v>
+      </c>
+      <c r="CY21">
+        <v>0.99807561164722003</v>
+      </c>
+      <c r="CZ21">
+        <v>0.99807445940970996</v>
+      </c>
+      <c r="DA21">
+        <v>428188</v>
+      </c>
+      <c r="DB21">
+        <v>0.99806466489878598</v>
+      </c>
+      <c r="DC21">
+        <v>0.99657914429268002</v>
+      </c>
+      <c r="DD21">
+        <v>0.99732135142141098</v>
+      </c>
+      <c r="DE21">
+        <v>121607</v>
+      </c>
+      <c r="DF21">
+        <v>0.99562877585104803</v>
+      </c>
+      <c r="DG21">
+        <v>0.99288548927682796</v>
+      </c>
+      <c r="DH21">
+        <v>0.99425524029156198</v>
+      </c>
+      <c r="DI21">
+        <v>48633</v>
+      </c>
+      <c r="DJ21">
+        <v>0.99854024773196304</v>
+      </c>
+      <c r="DK21">
+        <v>0.99975964147812701</v>
+      </c>
+      <c r="DL21">
+        <v>0.999149572558508</v>
+      </c>
+      <c r="DM21">
+        <v>257948</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:Y2">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:Y3">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:Y4">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:Y5">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>